--- a/medicine/Enfance/Parc_du_Petit_Prince/Parc_du_Petit_Prince.xlsx
+++ b/medicine/Enfance/Parc_du_Petit_Prince/Parc_du_Petit_Prince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc du Petit Prince est un parc d’attractions à thèmes inspiré de l'œuvre de l'écrivain français Antoine de Saint-Exupéry. Situé à Ungersheim dans le département du Haut-Rhin, plus précisément dans la région Alsace, le Parc du Petit Prince remplace Le Bioscope fermé depuis le 30 septembre 2012.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 2006 à 2012 se tenait à la place un ancien parc de loisirs muséographique consacré à l'environnement, le Bioscope.
-En septembre 2012, le comité syndical du syndicat mixte lance un appel à projets pour trouver un repreneur[1].
-Avec l'accord d'Olivier d'Agay, directeur de la succession Saint-Exupéry et petit-neveu de ce dernier[2], les dirigeants d'Aerophile SAS, Jérôme Giacomoni et Matthieu Gobbi, ont l'idée de construire un parc sur le thème du Petit Prince[3],[4] et remportent ainsi l'appel à projets en 2013[5].
-Le 1er juillet 2014, le parc du Petit Prince, d'une superficie de 24 hectares, ouvre ses portes[6]. Il conserve l'agencement centré sur la simulation d'un crash de météorite et les principaux éléments architecturaux, mais présente de nouveaux décors inspirés de l'œuvre d'Antoine de Saint-Exupéry dont un biplan[7]. La saison se termine avec 90 000 visiteurs[8].
-Pour son deuxième exercice, le site de loisirs enregistre 120 000 entrées[3].
+En septembre 2012, le comité syndical du syndicat mixte lance un appel à projets pour trouver un repreneur.
+Avec l'accord d'Olivier d'Agay, directeur de la succession Saint-Exupéry et petit-neveu de ce dernier, les dirigeants d'Aerophile SAS, Jérôme Giacomoni et Matthieu Gobbi, ont l'idée de construire un parc sur le thème du Petit Prince, et remportent ainsi l'appel à projets en 2013.
+Le 1er juillet 2014, le parc du Petit Prince, d'une superficie de 24 hectares, ouvre ses portes. Il conserve l'agencement centré sur la simulation d'un crash de météorite et les principaux éléments architecturaux, mais présente de nouveaux décors inspirés de l'œuvre d'Antoine de Saint-Exupéry dont un biplan. La saison se termine avec 90 000 visiteurs.
+Pour son deuxième exercice, le site de loisirs enregistre 120 000 entrées.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc du Petit Prince est situé à environ 20 km de Mulhouse et 25 km de Colmar.
 </t>
@@ -578,7 +594,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc du Petit Prince est un parc d’attractions qui offre des activités ludiques et éducatives pour tous les âges. Les visiteurs peuvent profiter de manèges à sensations fortes, d’expositions interactives et de spectacles.
 </t>
@@ -609,7 +627,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Entrée du parc
